--- a/static/documentos/despacho_sin_valor_2.xlsx
+++ b/static/documentos/despacho_sin_valor_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pycharm\uni2data\static\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11066846-EF61-4A8A-A369-84408A89F1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04310245-D8D8-4EA4-BFF6-27668E7AEB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DD838A3A-8495-4C03-BF2E-9AF1D86AFF1C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>REMISIÓN</t>
   </si>
@@ -106,6 +106,9 @@
   <si>
     <t>AIMER CARDENAS</t>
   </si>
+  <si>
+    <t>MARCA</t>
+  </si>
 </sst>
 </file>
 
@@ -115,7 +118,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +170,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -546,24 +557,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -587,6 +580,34 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -594,7 +615,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -614,133 +635,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -752,6 +680,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -767,6 +701,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -810,6 +747,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -830,74 +785,149 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1343,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C2C35D-678A-4093-B4D8-F4B5FA78B74D}">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61:G61"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,68 +1386,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="50"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="56" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="62" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="64"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="73"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="76"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1427,15 +1457,15 @@
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="84"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="89"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="91"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -1445,933 +1475,924 @@
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="79"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="80"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="82"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="84"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="77"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="86" t="s">
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="84"/>
+      <c r="I8" s="51"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="87"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="47" t="s">
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="103"/>
+      <c r="J11" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="48"/>
-      <c r="J11" s="49"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="92"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="96"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="105"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="97"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="106"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="97"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="106"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="97"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="106"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="106"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="106"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="97"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="106"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="97"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="106"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="97"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="106"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="97"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="106"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="97"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="106"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="97"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="106"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="97"/>
-      <c r="B24" s="98"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="106"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="97"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="106"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="97"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="106"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="97"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="106"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="97"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="99"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="106"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="97"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="106"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="100"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="105"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="108"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="8"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="9"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="8"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="7"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
+      <c r="A34" s="90"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="96"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="28"/>
+      <c r="A35" s="92"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="97"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="30"/>
+      <c r="A36" s="92"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="99"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="26"/>
+      <c r="A37" s="94"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="89"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="56" t="s">
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="62" t="s">
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="H38" s="63"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="64"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="36"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="52"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="67"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="39"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="69"/>
-      <c r="J40" s="70"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="42"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="73"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="45"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="54"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="76"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="48"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="43"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="27"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="44"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="46"/>
+      <c r="A44" s="100"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="101"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="47" t="s">
+      <c r="B45" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="47" t="s">
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="103"/>
+      <c r="J45" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="I45" s="48"/>
-      <c r="J45" s="49"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="92"/>
-      <c r="B46" s="93"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="93"/>
-      <c r="E46" s="93"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="93"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="95"/>
-      <c r="J46" s="96"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="105"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="97"/>
-      <c r="B47" s="98"/>
-      <c r="C47" s="98"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="98"/>
-      <c r="G47" s="98"/>
-      <c r="H47" s="99"/>
-      <c r="I47" s="99"/>
-      <c r="J47" s="99"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="106"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="97"/>
-      <c r="B48" s="98"/>
-      <c r="C48" s="98"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="98"/>
-      <c r="F48" s="98"/>
-      <c r="G48" s="98"/>
-      <c r="H48" s="99"/>
-      <c r="I48" s="99"/>
-      <c r="J48" s="99"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="106"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="97"/>
-      <c r="B49" s="98"/>
-      <c r="C49" s="98"/>
-      <c r="D49" s="98"/>
-      <c r="E49" s="98"/>
-      <c r="F49" s="98"/>
-      <c r="G49" s="98"/>
-      <c r="H49" s="99"/>
-      <c r="I49" s="99"/>
-      <c r="J49" s="99"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="106"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="97"/>
-      <c r="B50" s="98"/>
-      <c r="C50" s="98"/>
-      <c r="D50" s="98"/>
-      <c r="E50" s="98"/>
-      <c r="F50" s="98"/>
-      <c r="G50" s="98"/>
-      <c r="H50" s="99"/>
-      <c r="I50" s="99"/>
-      <c r="J50" s="99"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="106"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="97"/>
-      <c r="B51" s="98"/>
-      <c r="C51" s="98"/>
-      <c r="D51" s="98"/>
-      <c r="E51" s="98"/>
-      <c r="F51" s="98"/>
-      <c r="G51" s="98"/>
-      <c r="H51" s="99"/>
-      <c r="I51" s="99"/>
-      <c r="J51" s="99"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="106"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="97"/>
-      <c r="B52" s="98"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="98"/>
-      <c r="H52" s="99"/>
-      <c r="I52" s="99"/>
-      <c r="J52" s="99"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="106"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="97"/>
-      <c r="B53" s="98"/>
-      <c r="C53" s="98"/>
-      <c r="D53" s="98"/>
-      <c r="E53" s="98"/>
-      <c r="F53" s="98"/>
-      <c r="G53" s="98"/>
-      <c r="H53" s="99"/>
-      <c r="I53" s="99"/>
-      <c r="J53" s="99"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="106"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="97"/>
-      <c r="B54" s="98"/>
-      <c r="C54" s="98"/>
-      <c r="D54" s="98"/>
-      <c r="E54" s="98"/>
-      <c r="F54" s="98"/>
-      <c r="G54" s="98"/>
-      <c r="H54" s="99"/>
-      <c r="I54" s="99"/>
-      <c r="J54" s="99"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="106"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="97"/>
-      <c r="B55" s="98"/>
-      <c r="C55" s="98"/>
-      <c r="D55" s="98"/>
-      <c r="E55" s="98"/>
-      <c r="F55" s="98"/>
-      <c r="G55" s="98"/>
-      <c r="H55" s="99"/>
-      <c r="I55" s="99"/>
-      <c r="J55" s="99"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="106"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="97"/>
-      <c r="B56" s="98"/>
-      <c r="C56" s="98"/>
-      <c r="D56" s="98"/>
-      <c r="E56" s="98"/>
-      <c r="F56" s="98"/>
-      <c r="G56" s="98"/>
-      <c r="H56" s="99"/>
-      <c r="I56" s="99"/>
-      <c r="J56" s="99"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="106"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="97"/>
-      <c r="B57" s="98"/>
-      <c r="C57" s="98"/>
-      <c r="D57" s="98"/>
-      <c r="E57" s="98"/>
-      <c r="F57" s="98"/>
-      <c r="G57" s="98"/>
-      <c r="H57" s="99"/>
-      <c r="I57" s="99"/>
-      <c r="J57" s="99"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="106"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="97"/>
-      <c r="B58" s="98"/>
-      <c r="C58" s="98"/>
-      <c r="D58" s="98"/>
-      <c r="E58" s="98"/>
-      <c r="F58" s="98"/>
-      <c r="G58" s="98"/>
-      <c r="H58" s="99"/>
-      <c r="I58" s="99"/>
-      <c r="J58" s="99"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="106"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="97"/>
-      <c r="B59" s="98"/>
-      <c r="C59" s="98"/>
-      <c r="D59" s="98"/>
-      <c r="E59" s="98"/>
-      <c r="F59" s="98"/>
-      <c r="G59" s="98"/>
-      <c r="H59" s="99"/>
-      <c r="I59" s="99"/>
-      <c r="J59" s="99"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="106"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="97"/>
-      <c r="B60" s="98"/>
-      <c r="C60" s="98"/>
-      <c r="D60" s="98"/>
-      <c r="E60" s="98"/>
-      <c r="F60" s="98"/>
-      <c r="G60" s="98"/>
-      <c r="H60" s="99"/>
-      <c r="I60" s="99"/>
-      <c r="J60" s="99"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="106"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="97"/>
-      <c r="B61" s="98"/>
-      <c r="C61" s="98"/>
-      <c r="D61" s="98"/>
-      <c r="E61" s="98"/>
-      <c r="F61" s="98"/>
-      <c r="G61" s="98"/>
-      <c r="H61" s="99"/>
-      <c r="I61" s="99"/>
-      <c r="J61" s="99"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="106"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="97"/>
-      <c r="B62" s="98"/>
-      <c r="C62" s="98"/>
-      <c r="D62" s="98"/>
-      <c r="E62" s="98"/>
-      <c r="F62" s="98"/>
-      <c r="G62" s="98"/>
-      <c r="H62" s="99"/>
-      <c r="I62" s="99"/>
-      <c r="J62" s="99"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="106"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="97"/>
-      <c r="B63" s="98"/>
-      <c r="C63" s="98"/>
-      <c r="D63" s="98"/>
-      <c r="E63" s="98"/>
-      <c r="F63" s="98"/>
-      <c r="G63" s="98"/>
-      <c r="H63" s="99"/>
-      <c r="I63" s="99"/>
-      <c r="J63" s="99"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="106"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="97"/>
-      <c r="B64" s="98"/>
-      <c r="C64" s="98"/>
-      <c r="D64" s="98"/>
-      <c r="E64" s="98"/>
-      <c r="F64" s="98"/>
-      <c r="G64" s="98"/>
-      <c r="H64" s="99"/>
-      <c r="I64" s="99"/>
-      <c r="J64" s="99"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="106"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="97"/>
-      <c r="B65" s="98"/>
-      <c r="C65" s="98"/>
-      <c r="D65" s="98"/>
-      <c r="E65" s="98"/>
-      <c r="F65" s="98"/>
-      <c r="G65" s="98"/>
-      <c r="H65" s="99"/>
-      <c r="I65" s="99"/>
-      <c r="J65" s="99"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="106"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="97"/>
-      <c r="B66" s="98"/>
-      <c r="C66" s="98"/>
-      <c r="D66" s="98"/>
-      <c r="E66" s="98"/>
-      <c r="F66" s="98"/>
-      <c r="G66" s="98"/>
-      <c r="H66" s="99"/>
-      <c r="I66" s="99"/>
-      <c r="J66" s="99"/>
+      <c r="A66" s="11"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="106"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="97"/>
-      <c r="B67" s="98"/>
-      <c r="C67" s="98"/>
-      <c r="D67" s="98"/>
-      <c r="E67" s="98"/>
-      <c r="F67" s="98"/>
-      <c r="G67" s="98"/>
-      <c r="H67" s="99"/>
-      <c r="I67" s="99"/>
-      <c r="J67" s="99"/>
+      <c r="A67" s="11"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="106"/>
     </row>
     <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="15"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="35" t="s">
+      <c r="A68" s="69"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="70"/>
+      <c r="H68" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="I68" s="36"/>
-      <c r="J68" s="8"/>
+      <c r="I68" s="76"/>
+      <c r="J68" s="7"/>
     </row>
     <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="32"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="37" t="s">
+      <c r="A69" s="71"/>
+      <c r="B69" s="72"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="72"/>
+      <c r="H69" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="I69" s="38"/>
-      <c r="J69" s="9"/>
+      <c r="I69" s="78"/>
+      <c r="J69" s="8"/>
     </row>
     <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="27"/>
-      <c r="B70" s="34"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="39" t="s">
+      <c r="A70" s="73"/>
+      <c r="B70" s="74"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="74"/>
+      <c r="G70" s="74"/>
+      <c r="H70" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="I70" s="40"/>
-      <c r="J70" s="8"/>
+      <c r="I70" s="80"/>
+      <c r="J70" s="7"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="12" t="s">
+      <c r="B71" s="91"/>
+      <c r="C71" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="13"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="12" t="s">
+      <c r="D71" s="82"/>
+      <c r="E71" s="83"/>
+      <c r="F71" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="G71" s="13"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="15" t="s">
+      <c r="G71" s="82"/>
+      <c r="H71" s="83"/>
+      <c r="I71" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="J71" s="16"/>
+      <c r="J71" s="96"/>
     </row>
     <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="17"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="21" t="s">
+      <c r="A72" s="92"/>
+      <c r="B72" s="93"/>
+      <c r="C72" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="22"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="28"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="86"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="85"/>
+      <c r="H72" s="86"/>
+      <c r="I72" s="73"/>
+      <c r="J72" s="97"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="17"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="29" t="s">
+      <c r="A73" s="92"/>
+      <c r="B73" s="93"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="85"/>
+      <c r="E73" s="86"/>
+      <c r="F73" s="84"/>
+      <c r="G73" s="85"/>
+      <c r="H73" s="86"/>
+      <c r="I73" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="J73" s="30"/>
+      <c r="J73" s="99"/>
     </row>
     <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="19"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="26"/>
+      <c r="A74" s="94"/>
+      <c r="B74" s="95"/>
+      <c r="C74" s="87"/>
+      <c r="D74" s="88"/>
+      <c r="E74" s="89"/>
+      <c r="F74" s="87"/>
+      <c r="G74" s="88"/>
+      <c r="H74" s="89"/>
+      <c r="I74" s="87"/>
+      <c r="J74" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="131">
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:E74"/>
+    <mergeCell ref="F72:H74"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="A68:G70"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="F35:H37"/>
+    <mergeCell ref="A43:J44"/>
+    <mergeCell ref="A38:B42"/>
+    <mergeCell ref="C38:F42"/>
+    <mergeCell ref="G38:J39"/>
+    <mergeCell ref="G40:J42"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
     <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H13:J13"/>
     <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:J14"/>
     <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:J15"/>
     <mergeCell ref="A1:B5"/>
     <mergeCell ref="C1:F5"/>
     <mergeCell ref="G1:J2"/>
@@ -2385,12 +2406,23 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="A9:J10"/>
     <mergeCell ref="B11:G11"/>
-    <mergeCell ref="H11:J11"/>
     <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="A31:G33"/>
     <mergeCell ref="H31:I31"/>
@@ -2405,37 +2437,39 @@
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H37"/>
-    <mergeCell ref="A43:J44"/>
-    <mergeCell ref="A38:B42"/>
-    <mergeCell ref="C38:F42"/>
-    <mergeCell ref="G38:J39"/>
-    <mergeCell ref="G40:J42"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G51"/>
     <mergeCell ref="B49:G49"/>
     <mergeCell ref="B52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:G57"/>
     <mergeCell ref="B55:G55"/>
     <mergeCell ref="B58:G58"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B63:G63"/>
     <mergeCell ref="B61:G61"/>
     <mergeCell ref="B64:G64"/>
-    <mergeCell ref="A68:G70"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:E74"/>
-    <mergeCell ref="F72:H74"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H66:I66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" orientation="portrait" r:id="rId1"/>
